--- a/RIV4-tests/src/test/resources/imports/project/project-general.xlsx
+++ b/RIV4-tests/src/test/resources/imports/project/project-general.xlsx
@@ -473,10 +473,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -685,83 +685,64 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="4">
         <f>E7+E13</f>
         <v>13620</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F15" s="4">
         <f>F7+F13</f>
         <v>0</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G15" s="4">
         <f>G7+G13</f>
         <v>13620</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18">
-      <c r="A17" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="18" spans="1:7" ht="18">
       <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18">
+      <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20" s="4">
-        <v>60</v>
-      </c>
-      <c r="E20" s="4">
-        <f>C20*D20</f>
-        <v>720</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <f>E20-F20</f>
-        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -770,153 +751,184 @@
         <v>12</v>
       </c>
       <c r="D21" s="4">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="E21" s="4">
         <f>C21*D21</f>
-        <v>3000</v>
+        <v>720</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
       </c>
       <c r="G21" s="4">
         <f>E21-F21</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22" s="4">
+        <v>250</v>
+      </c>
+      <c r="E22" s="4">
+        <f>C22*D22</f>
         <v>3000</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <f>E22-F22</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="4">
-        <f>SUM(E20:E21)</f>
+      <c r="E23" s="4">
+        <f>SUM(E21:E22)</f>
         <v>3720</v>
       </c>
-      <c r="F22" s="4">
-        <f>SUM(F20:F21)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <f>SUM(G20:G21)</f>
+      <c r="F23" s="4">
+        <f>SUM(F21:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <f>SUM(G21:G22)</f>
         <v>3720</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:7" ht="18">
+      <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4">
-        <v>450</v>
-      </c>
-      <c r="E26" s="4">
-        <f>C26*D26</f>
-        <v>2700</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <f>E26-F26</f>
-        <v>2700</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D27" s="4">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="E27" s="4">
         <f>C27*D27</f>
-        <v>7200</v>
+        <v>2700</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
       </c>
       <c r="G27" s="4">
         <f>E27-F27</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28" s="4">
+        <v>600</v>
+      </c>
+      <c r="E28" s="4">
+        <f>C28*D28</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="D28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="4">
-        <f>SUM(E26:E27)</f>
-        <v>9900</v>
-      </c>
       <c r="F28" s="4">
-        <f>SUM(F26:F27)</f>
         <v>0</v>
       </c>
       <c r="G28" s="4">
-        <f>SUM(G26:G27)</f>
-        <v>9900</v>
+        <f>E28-F28</f>
+        <v>7200</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="4">
+        <f>SUM(E27:E28)</f>
+        <v>9900</v>
+      </c>
+      <c r="F29" s="4">
+        <f>SUM(F27:F28)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <f>SUM(G27:G28)</f>
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="D30" s="1"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="D31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="4">
-        <f>E22+E28</f>
+      <c r="E31" s="4">
+        <f>E23+E29</f>
         <v>13620</v>
       </c>
-      <c r="F29" s="4">
-        <f>F22+F28</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <f>G22+G28</f>
+      <c r="F31" s="4">
+        <f>F23+F29</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <f>G23+G29</f>
         <v>13620</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B11:B12 B26:B27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B11:B12 B27:B28">
       <formula1>"p/day(s),p/week(s),p/month(s),p/year(s)"</formula1>
     </dataValidation>
   </dataValidations>
